--- a/excel/MCMResults.xlsx
+++ b/excel/MCMResults.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Iteration</t>
   </si>
@@ -43,16 +43,20 @@
   <si>
     <t>Dp Time (us)</t>
   </si>
+  <si>
+    <t>average</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -516,7 +520,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,8 +668,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -943,6 +950,993 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"矩阵连乘问题"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>矩阵连乘问题</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('LCS Results'!$B$1,'LCS Results'!$C$1,'LCS Results'!$D$1,'LCS Results'!$E$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BruteForce Time (us)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Recursive Time (us)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memoization Time (us)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dp Time (us)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('LCS Results'!$B$52,'LCS Results'!$C$52,'LCS Results'!$D$52,'LCS Results'!$E$52)</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>106.959183673469</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>193.408163265306</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.4285714285714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.9387755102041</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="246"/>
+        <c:overlap val="-28"/>
+        <c:axId val="763927684"/>
+        <c:axId val="574485285"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="763927684"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574485285"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="574485285"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="763927684"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10001">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9372600" y="4013200"/>
+        <a:ext cx="4826000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1201,13 +2195,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="5" width="12.625"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -2076,8 +3073,30 @@
         <v>43</v>
       </c>
     </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="1">
+        <f>AVERAGE(B3:B51)</f>
+        <v>106.959183673469</v>
+      </c>
+      <c r="C52" s="1">
+        <f>AVERAGE(C3:C51)</f>
+        <v>193.408163265306</v>
+      </c>
+      <c r="D52" s="1">
+        <f>AVERAGE(D3:D51)</f>
+        <v>78.4285714285714</v>
+      </c>
+      <c r="E52" s="1">
+        <f>AVERAGE(E3:E51)</f>
+        <v>55.9387755102041</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>